--- a/data/trans_dic/iP30A6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A6_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>31,36%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,72; 48,73</t>
+          <t>28,62; 41,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,03; 46,64</t>
+          <t>22,82; 34,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,56; 45,81</t>
+          <t>27,5; 35,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>42,26%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,62; 41,44</t>
+          <t>38,72; 48,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,82; 34,09</t>
+          <t>36,03; 46,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,5; 35,36</t>
+          <t>38,56; 45,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A6_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>17,83%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 31,09</t>
+          <t>12,02; 30,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,39; 29,12</t>
+          <t>8,84; 26,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,41; 27,58</t>
+          <t>12,44; 24,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>29,43%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,62; 41,44</t>
+          <t>28,21; 40,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 34,09</t>
+          <t>19,08; 31,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,5; 35,36</t>
+          <t>25,39; 34,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,72; 48,73</t>
+          <t>28,87; 41,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,03; 46,64</t>
+          <t>30,34; 43,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,56; 45,81</t>
+          <t>30,75; 39,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>46,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>43,88%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,69; 41,85</t>
+          <t>40,09; 52,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,64; 38,4</t>
+          <t>35,1; 48,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,8; 38,85</t>
+          <t>39,54; 48,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38,12%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35,01; 41,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30,62; 38,18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33,68; 38,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/iP30A6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A6_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 30,62</t>
+          <t>11,83; 31,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 26,65</t>
+          <t>8,86; 26,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 24,77</t>
+          <t>12,14; 25,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,21; 40,21</t>
+          <t>27,81; 39,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 31,09</t>
+          <t>20,03; 31,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 34,02</t>
+          <t>25,39; 34,07</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,87; 41,31</t>
+          <t>28,46; 40,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,34; 43,2</t>
+          <t>30,53; 43,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,75; 39,34</t>
+          <t>31,1; 40,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,09; 52,53</t>
+          <t>40,26; 52,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,1; 48,16</t>
+          <t>36,1; 48,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,54; 48,87</t>
+          <t>39,75; 48,48</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,01; 41,78</t>
+          <t>34,51; 41,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,62; 38,18</t>
+          <t>30,61; 37,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,68; 38,9</t>
+          <t>33,75; 38,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A6_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,54%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,83; 31,32</t>
+          <t>8,98; 26,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 26,08</t>
+          <t>11,64; 28,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 25,06</t>
+          <t>12,0; 24,02</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>28,98%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,81; 39,7</t>
+          <t>18,57; 29,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,03; 31,01</t>
+          <t>27,3; 39,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 34,07</t>
+          <t>25,05; 33,12</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,19%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,46; 40,73</t>
+          <t>30,37; 43,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,53; 43,57</t>
+          <t>27,85; 41,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,1; 40,46</t>
+          <t>30,94; 40,23</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>45,54%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,26; 52,86</t>
+          <t>36,75; 64,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,1; 48,95</t>
+          <t>39,88; 54,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,75; 48,48</t>
+          <t>40,45; 54,31</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>36,8%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,51; 41,71</t>
+          <t>31,16; 46,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,61; 37,74</t>
+          <t>34,62; 42,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,75; 38,96</t>
+          <t>33,83; 40,95</t>
         </is>
       </c>
     </row>
